--- a/5. rating/predict_mean.xlsx
+++ b/5. rating/predict_mean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanah\Desktop\workspace\Project\ESG\5. rating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A2F4B-5C25-4E52-B88A-E7786F1CCB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8615F0-6874-47E1-90B7-31A4785C0090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9612" yWindow="1908" windowWidth="13524" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,13 +467,13 @@
   <dimension ref="A1:J2557"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R299" sqref="R299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.296875" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" customWidth="1"/>
     <col min="2" max="2" width="8.8984375" customWidth="1"/>
     <col min="3" max="4" width="8.796875" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" customWidth="1"/>
